--- a/docs/tiko/craft-store.xlsx
+++ b/docs/tiko/craft-store.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Expense</t>
   </si>
   <si>
-    <t>Amount</t>
+    <t>Cost</t>
   </si>
   <si>
     <t>Number</t>
@@ -40,10 +40,13 @@
     <t>Electricity</t>
   </si>
   <si>
-    <t>Salaries</t>
+    <t>Maintenance</t>
   </si>
   <si>
     <t>Income</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
   <si>
     <t>Expenses</t>
@@ -382,19 +385,19 @@
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4">
-        <v>25.0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>4.0</v>
+      <c r="B4" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4">
-        <v>50.0</v>
+      <c r="B5" s="3">
+        <v>25.0</v>
       </c>
       <c r="C5" s="4">
         <v>3.0</v>
@@ -404,22 +407,22 @@
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4">
-        <v>200.0</v>
+      <c r="B6" s="3">
+        <v>50.0</v>
       </c>
       <c r="C6" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4">
-        <v>300.0</v>
-      </c>
-      <c r="C7" s="4">
-        <v>3.0</v>
+      <c r="B7" s="3">
+        <v>45.0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -427,7 +430,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
@@ -462,8 +465,8 @@
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="4">
-        <v>150.0</v>
+      <c r="B10" s="3">
+        <v>300.0</v>
       </c>
       <c r="C10" s="3">
         <v>2.0</v>
@@ -473,8 +476,8 @@
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="4">
-        <v>100.0</v>
+      <c r="B11" s="3">
+        <v>175.0</v>
       </c>
       <c r="C11" s="3">
         <v>5.0</v>
@@ -484,19 +487,19 @@
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
+        <v>25.0</v>
+      </c>
+      <c r="C12" s="3">
         <v>10.0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>4.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="4">
-        <v>20.0</v>
+      <c r="B13" s="3">
+        <v>50.0</v>
       </c>
       <c r="C13" s="3">
         <v>3.0</v>
@@ -534,7 +537,7 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -544,7 +547,7 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
